--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="951">
   <si>
     <t>anchor score</t>
   </si>
@@ -397,397 +397,397 @@
     <t>hit</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>safe</t>
@@ -3232,10 +3232,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03350070493852483</v>
+        <v>0.03406108114136479</v>
       </c>
       <c r="C3">
         <v>145</v>
@@ -3314,16 +3314,16 @@
         <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K3">
-        <v>0.005743373447590409</v>
+        <v>0.008454016809189236</v>
       </c>
       <c r="L3">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="M3">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>58</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3343,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02136957822366405</v>
+        <v>0.02172703348089648</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -3364,28 +3364,28 @@
         <v>457</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="K4">
-        <v>0.004667400425351681</v>
+        <v>0.007801772140388403</v>
       </c>
       <c r="L4">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M4">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>234</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3393,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01180337478473872</v>
+        <v>0.01200081332684421</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -3414,16 +3414,16 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K5">
-        <v>0.004518862063144853</v>
+        <v>0.005743373447590409</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3443,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01147081842777358</v>
+        <v>0.01166269420130783</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3464,28 +3464,28 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="K6">
-        <v>0.00425017026786432</v>
+        <v>0.004667400425351681</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3493,7 +3493,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01040959810390307</v>
+        <v>0.01058372253111316</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3514,16 +3514,16 @@
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K7">
-        <v>0.003653985936761946</v>
+        <v>0.004518862063144853</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>452</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3543,7 +3543,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009227122518240162</v>
+        <v>0.00938146732648819</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3564,28 +3564,28 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="K8">
-        <v>0.003641954333043756</v>
+        <v>0.00425017026786432</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3593,7 +3593,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008346246351175054</v>
+        <v>0.008485856483165435</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3614,16 +3614,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K9">
-        <v>0.003599849819007097</v>
+        <v>0.003653985936761946</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3643,7 +3643,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3664,28 +3664,28 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="K10">
-        <v>0.003375331391109926</v>
+        <v>0.003641954333043756</v>
       </c>
       <c r="L10">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>2806</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3693,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -3714,16 +3714,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K11">
-        <v>0.003374631934420527</v>
+        <v>0.003599849819007097</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3743,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3764,28 +3764,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.003344009710533487</v>
+        <v>0.003375331391109926</v>
       </c>
       <c r="L12">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="M12">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>38</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3793,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007868916523159146</v>
+        <v>0.008000542217896143</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3814,16 +3814,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K13">
-        <v>0.003256186677620546</v>
+        <v>0.003374631934420527</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3843,7 +3843,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007360697408696485</v>
+        <v>0.007483821971946968</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -3864,28 +3864,28 @@
         <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="K14">
-        <v>0.003220128857967034</v>
+        <v>0.003344009710533487</v>
       </c>
       <c r="L14">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="M14">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>1927</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3893,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007360697408696485</v>
+        <v>0.007483821971946968</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -3914,16 +3914,16 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K15">
-        <v>0.003133267091426493</v>
+        <v>0.003256186677620546</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>190</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3943,7 +3943,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00681468160931494</v>
+        <v>0.006928672804747954</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -3964,28 +3964,28 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.003133267091426493</v>
+        <v>0.003220128857967034</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3993,7 +3993,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00681468160931494</v>
+        <v>0.006928672804747954</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4014,16 +4014,16 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K17">
-        <v>0.003005324217604306</v>
+        <v>0.003133267091426493</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4043,7 +4043,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -4064,16 +4064,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K18">
-        <v>0.003005324217604306</v>
+        <v>0.003133267091426493</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4093,7 +4093,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -4114,16 +4114,16 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K19">
-        <v>0.002871686723795204</v>
+        <v>0.003005324217604306</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4143,7 +4143,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4164,16 +4164,16 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K20">
-        <v>0.002871686723795204</v>
+        <v>0.003005324217604306</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>246</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4193,7 +4193,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4214,7 +4214,7 @@
         <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K21">
         <v>0.002871686723795204</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4243,7 +4243,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4264,16 +4264,16 @@
         <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K22">
-        <v>0.002802479283237075</v>
+        <v>0.002871686723795204</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4293,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4314,16 +4314,16 @@
         <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K23">
-        <v>0.002802479283237075</v>
+        <v>0.002871686723795204</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4343,7 +4343,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4364,28 +4364,28 @@
         <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="K24">
-        <v>0.002781828299857987</v>
+        <v>0.002802479283237075</v>
       </c>
       <c r="L24">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4393,7 +4393,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4414,28 +4414,28 @@
         <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="K25">
-        <v>0.002771678267024969</v>
+        <v>0.002802479283237075</v>
       </c>
       <c r="L25">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4443,7 +4443,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4464,28 +4464,28 @@
         <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K26">
-        <v>0.002758638031425694</v>
+        <v>0.002781828299857987</v>
       </c>
       <c r="L26">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M26">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4493,7 +4493,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4514,28 +4514,28 @@
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="K27">
-        <v>0.00273151892292994</v>
+        <v>0.002758638031425694</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>211</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4543,7 +4543,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006220924732729001</v>
+        <v>0.006324983981221738</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4564,16 +4564,16 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K28">
-        <v>0.002506613673141194</v>
+        <v>0.00273151892292994</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>75</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4593,7 +4593,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4614,16 +4614,16 @@
         <v>47</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K29">
-        <v>0.002427018252862912</v>
+        <v>0.002506613673141194</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4643,7 +4643,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4664,7 +4664,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K30">
         <v>0.002427018252862912</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4693,7 +4693,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4714,7 +4714,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K31">
         <v>0.002427018252862912</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4743,7 +4743,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4764,7 +4764,7 @@
         <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K32">
         <v>0.002427018252862912</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4793,7 +4793,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4814,28 +4814,28 @@
         <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="K33">
-        <v>0.002414784609462251</v>
+        <v>0.002427018252862912</v>
       </c>
       <c r="L33">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4843,7 +4843,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4864,28 +4864,28 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="K34">
-        <v>0.002344722391474327</v>
+        <v>0.002414784609462251</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4893,7 +4893,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005564164234116703</v>
+        <v>0.005657237655443623</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4914,28 +4914,28 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="K35">
-        <v>0.002329711423689775</v>
+        <v>0.002344722391474327</v>
       </c>
       <c r="L35">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3043</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4943,7 +4943,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4967,25 +4967,25 @@
         <v>127</v>
       </c>
       <c r="K36">
-        <v>0.002278598041428293</v>
+        <v>0.002329711423689775</v>
       </c>
       <c r="L36">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="M36">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>146</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4993,7 +4993,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5043,7 +5043,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5093,7 +5093,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5143,7 +5143,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5193,7 +5193,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5243,7 +5243,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5293,7 +5293,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004818707577573849</v>
+        <v>0.004899311524860095</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5343,7 +5343,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -5393,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -5443,7 +5443,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5543,7 +5543,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5564,7 +5564,7 @@
         <v>36</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K48">
         <v>0.002161820451339575</v>
@@ -5593,7 +5593,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5614,7 +5614,7 @@
         <v>6</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K49">
         <v>0.00214507355202954</v>
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5693,7 +5693,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5743,7 +5743,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5793,7 +5793,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5843,7 +5843,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -5893,7 +5893,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5943,7 +5943,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5993,7 +5993,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6043,7 +6043,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6064,7 +6064,7 @@
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K58">
         <v>0.002002188313271485</v>
@@ -6093,7 +6093,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6143,7 +6143,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003934458261579573</v>
+        <v>0.004000271108948072</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6193,7 +6193,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003309649623354813</v>
+        <v>0.003365011111779297</v>
       </c>
       <c r="C61">
         <v>14</v>
@@ -6214,7 +6214,7 @@
         <v>2806</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K61">
         <v>0.00191424319472172</v>
@@ -6243,7 +6243,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002803684292979286</v>
+        <v>0.002850582349630476</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -6264,7 +6264,7 @@
         <v>1927</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K62">
         <v>0.001897404809871778</v>
@@ -6293,7 +6293,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6393,7 +6393,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6443,7 +6443,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6493,7 +6493,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6543,7 +6543,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6593,7 +6593,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6643,7 +6643,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6814,7 +6814,7 @@
         <v>35</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K73">
         <v>0.001756720554811666</v>
@@ -6843,7 +6843,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>79</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K74">
         <v>0.001684123987236556</v>
@@ -6893,7 +6893,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6943,7 +6943,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7043,7 +7043,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7143,7 +7143,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7243,7 +7243,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7293,7 +7293,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7343,7 +7343,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7393,7 +7393,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7443,7 +7443,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7493,7 +7493,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7543,7 +7543,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7593,7 +7593,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7643,7 +7643,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7693,7 +7693,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7743,7 +7743,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7793,7 +7793,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7814,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K93">
         <v>0.001647380822391589</v>
@@ -7843,7 +7843,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7864,7 +7864,7 @@
         <v>22</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K94">
         <v>0.001572966011870693</v>
@@ -7893,7 +7893,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7914,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K95">
         <v>0.001535277894481934</v>
@@ -7943,7 +7943,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8043,7 +8043,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8093,7 +8093,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8193,7 +8193,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8243,7 +8243,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8293,7 +8293,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8343,7 +8343,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8393,7 +8393,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8443,7 +8443,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8493,7 +8493,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8543,7 +8543,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8593,7 +8593,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8643,7 +8643,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8693,7 +8693,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8743,7 +8743,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8793,7 +8793,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8843,7 +8843,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8943,7 +8943,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8993,7 +8993,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9043,7 +9043,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9093,7 +9093,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9143,7 +9143,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9193,7 +9193,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002782082117058351</v>
+        <v>0.002828618827721811</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9243,25 +9243,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002597557562587447</v>
+        <v>0.002428558156631126</v>
       </c>
       <c r="C122">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D122">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E122">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F122">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>146</v>
+        <v>3043</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>356</v>
@@ -9293,25 +9293,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002421001866416039</v>
+        <v>0.002211120831632568</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E123">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F123">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>357</v>
@@ -9343,25 +9343,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002388603282840105</v>
+        <v>0.002073771760442627</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D124">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="E124">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F124">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>3043</v>
+        <v>780</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>358</v>
@@ -9393,25 +9393,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002174743257752629</v>
+        <v>0.001948672783186084</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E125">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F125">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>359</v>
@@ -9443,25 +9443,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002039653866772414</v>
+        <v>0.001916903164004971</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E126">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F126">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>780</v>
+        <v>20</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>360</v>
@@ -9493,25 +9493,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001916613029994831</v>
+        <v>0.001852740077048936</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E127">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F127">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>361</v>
@@ -9543,13 +9543,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001885366087662657</v>
+        <v>0.001822544065766933</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
       <c r="D128">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E128">
         <v>0.97</v>
@@ -9561,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>20</v>
+        <v>812</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>362</v>
@@ -9593,25 +9593,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001822258618021929</v>
+        <v>0.001806736961133758</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E129">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F129">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>363</v>
@@ -9643,25 +9643,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001792559394439439</v>
+        <v>0.001731774013741897</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>812</v>
+        <v>234</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>364</v>
@@ -9693,25 +9693,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001777012349821254</v>
+        <v>0.001604304719311411</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E131">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F131">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>365</v>
@@ -9743,25 +9743,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001703282700093633</v>
+        <v>0.001595294219483951</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>366</v>
@@ -9793,25 +9793,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001577910542829615</v>
+        <v>0.001558871032931997</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E133">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F133">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>367</v>
@@ -9843,25 +9843,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001569048284617213</v>
+        <v>0.001538247312582321</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E134">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>368</v>
@@ -9893,25 +9893,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001533224335854882</v>
+        <v>0.001469447103431012</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E135">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F135">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>800</v>
+        <v>157</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>369</v>
@@ -9943,25 +9943,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001512939918948042</v>
+        <v>0.001349851084852349</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>18</v>
+        <v>592</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>370</v>
@@ -9993,28 +9993,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001445271617495106</v>
+        <v>0.001349851084852349</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <v>58</v>
       </c>
       <c r="E137">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F137">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>157</v>
+        <v>1103</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K137">
         <v>0.001393887295480774</v>
@@ -10043,28 +10043,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001327643204186743</v>
+        <v>0.001333951144763345</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E138">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F138">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>592</v>
+        <v>41</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K138">
         <v>0.00138111159336612</v>
@@ -10093,28 +10093,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001327643204186743</v>
+        <v>0.001302616892363648</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E139">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F139">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1103</v>
+        <v>304</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K139">
         <v>0.001370577037201435</v>
@@ -10143,28 +10143,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001312004851450633</v>
+        <v>0.00129108220960731</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E140">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F140">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K140">
         <v>0.001341667807716306</v>
@@ -10193,28 +10193,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001281186113203458</v>
+        <v>0.00122355938474741</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E141">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F141">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>304</v>
+        <v>3</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K141">
         <v>0.001338101079324737</v>
@@ -10243,13 +10243,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001269841200163974</v>
+        <v>0.001201962949436533</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E142">
         <v>0.98</v>
@@ -10261,10 +10261,10 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K142">
         <v>0.001303356526394988</v>
@@ -10293,25 +10293,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001203429267352479</v>
+        <v>0.001190717447032031</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E143">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F143">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>527</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>371</v>
@@ -10343,25 +10343,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001182188138685104</v>
+        <v>0.00116725432386772</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E144">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>372</v>
@@ -10393,13 +10393,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001171127648374326</v>
+        <v>0.001155002066373362</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E145">
         <v>0.97</v>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>527</v>
+        <v>290</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>373</v>
@@ -10443,13 +10443,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001148050542782711</v>
+        <v>0.00110204872501398</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E146">
         <v>0.97</v>
@@ -10461,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>374</v>
@@ -10493,13 +10493,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001135999860614233</v>
+        <v>0.001087705105868942</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E147">
         <v>0.97</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>375</v>
@@ -10543,25 +10543,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001083917712750898</v>
+        <v>0.001071142386347098</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E148">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F148">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>376</v>
@@ -10593,25 +10593,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001069810076215986</v>
+        <v>0.001071142386347098</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>32</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>377</v>
@@ -10643,13 +10643,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001053519848158398</v>
+        <v>0.001049566450895892</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E150">
         <v>0.9399999999999999</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>378</v>
@@ -10693,25 +10693,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001053519848158398</v>
+        <v>0.001041558060162979</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>379</v>
@@ -10743,25 +10743,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001032298882085019</v>
+        <v>0.0008764668428308202</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>380</v>
@@ -10793,25 +10793,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001024422246171372</v>
+        <v>0.0008479212443329033</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E153">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F153">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>381</v>
@@ -10843,25 +10843,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0008620471255217244</v>
+        <v>0.0008140438710707362</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E154">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F154">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>382</v>
@@ -10893,25 +10893,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0008339711619724947</v>
+        <v>0.0007574120450023737</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E155">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F155">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>383</v>
@@ -10943,25 +10943,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0008006511425333627</v>
+        <v>0.0007549386663526247</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E156">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F156">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>384</v>
@@ -10993,25 +10993,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0007449510287474252</v>
+        <v>0.0007264082707651502</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>385</v>
@@ -11043,25 +11043,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0007425183423625568</v>
+        <v>0.0006933202485987687</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E158">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>386</v>
@@ -11093,13 +11093,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.000714457331604016</v>
+        <v>0.0006933202485987687</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E159">
         <v>0.93</v>
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>387</v>
@@ -11143,7 +11143,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0006819136767800605</v>
+        <v>0.0006933202485987687</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>388</v>
@@ -11193,7 +11193,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0006819136767800605</v>
+        <v>0.0006933202485987687</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>389</v>
@@ -11243,7 +11243,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0006819136767800605</v>
+        <v>0.0006933202485987687</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>47</v>
+        <v>531</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>390</v>
@@ -11293,25 +11293,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0006819136767800605</v>
+        <v>0.000657877407878609</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F163">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>391</v>
@@ -11343,25 +11343,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0006819136767800605</v>
+        <v>0.000657877407878609</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>531</v>
+        <v>46</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>392</v>
@@ -11393,13 +11393,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0006470539451050363</v>
+        <v>0.0006197556480508369</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E165">
         <v>0.92</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>393</v>
@@ -11443,25 +11443,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0006470539451050363</v>
+        <v>0.0005785632106782515</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F166">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>394</v>
@@ -11493,25 +11493,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0006095593681587822</v>
+        <v>0.0005785632106782515</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F167">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>395</v>
@@ -11543,25 +11543,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0005690446327518146</v>
+        <v>0.0005338222503578693</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F168">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>396</v>
@@ -11593,25 +11593,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0005690446327518146</v>
+        <v>0.0005338222503578693</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E169">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F169">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>397</v>
@@ -11643,7 +11643,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0005250397550399584</v>
+        <v>0.0005338222503578693</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>398</v>
@@ -11693,7 +11693,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0005250397550399584</v>
+        <v>0.0005338222503578693</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>399</v>
@@ -11743,7 +11743,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0005250397550399584</v>
+        <v>0.0005338222503578693</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11761,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>400</v>
@@ -11793,25 +11793,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0005250397550399584</v>
+        <v>0.0004849451782049209</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>401</v>
@@ -11843,25 +11843,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0005250397550399584</v>
+        <v>0.0004849451782049209</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F174">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>402</v>
@@ -11893,7 +11893,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0004769668132076339</v>
+        <v>0.0004849451782049209</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11911,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>403</v>
@@ -11943,25 +11943,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0004769668132076339</v>
+        <v>0.0004312058848475691</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F176">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>404</v>
@@ -11993,25 +11993,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0004769668132076339</v>
+        <v>0.0004312058848475691</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F177">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>405</v>
@@ -12043,7 +12043,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0004241116439046511</v>
+        <v>0.0004312058848475691</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12061,7 +12061,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>406</v>
@@ -12093,7 +12093,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0004241116439046511</v>
+        <v>0.0004312058848475691</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12111,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>407</v>
@@ -12143,7 +12143,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0004241116439046511</v>
+        <v>0.0004312058848475691</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12161,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>408</v>
@@ -12193,7 +12193,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0004241116439046511</v>
+        <v>0.0004312058848475691</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>409</v>
@@ -12243,28 +12243,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0004241116439046511</v>
+        <v>0.0003717105446920538</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E182">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F182">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>129</v>
+        <v>353</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K182">
         <v>0.001220999496870054</v>
@@ -12293,25 +12293,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004241116439046511</v>
+        <v>0.0003717105446920538</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F183">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>410</v>
@@ -12343,7 +12343,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.000365595126842409</v>
+        <v>0.0003717105446920538</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12361,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>411</v>
@@ -12393,7 +12393,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.000365595126842409</v>
+        <v>0.0003717105446920538</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12411,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>412</v>
@@ -12443,7 +12443,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.000365595126842409</v>
+        <v>0.0003717105446920538</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>413</v>
@@ -12493,25 +12493,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.000365595126842409</v>
+        <v>0.0003268388145125248</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F187">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>414</v>
@@ -12543,25 +12543,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.000365595126842409</v>
+        <v>0.0003053904550310508</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E188">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F188">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>415</v>
@@ -12593,25 +12593,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0003214616307097824</v>
+        <v>0.0003053904550310508</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F189">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>416</v>
@@ -12643,7 +12643,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0003003661417139366</v>
+        <v>0.0003053904550310508</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12661,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>417</v>
@@ -12693,7 +12693,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003003661417139366</v>
+        <v>0.0003053904550310508</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12711,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>418</v>
@@ -12743,7 +12743,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003003661417139366</v>
+        <v>0.0003053904550310508</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12761,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>419</v>
@@ -12793,7 +12793,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003003661417139366</v>
+        <v>0.0003053904550310508</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>420</v>
@@ -12843,7 +12843,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003003661417139366</v>
+        <v>0.0003053904550310508</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>421</v>
@@ -12893,25 +12893,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003003661417139366</v>
+        <v>0.0002311099420967784</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>422</v>
@@ -12943,25 +12943,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003003661417139366</v>
+        <v>0.0002311099420967784</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>423</v>
@@ -12993,7 +12993,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0002273076989661729</v>
+        <v>0.0002311099420967784</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>424</v>
@@ -13043,7 +13043,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0002273076989661729</v>
+        <v>0.0002311099420967784</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>425</v>
@@ -13093,7 +13093,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002273076989661729</v>
+        <v>0.0002311099420967784</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13111,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>426</v>
@@ -13143,25 +13143,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002273076989661729</v>
+        <v>0.0002097288827978399</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>427</v>
@@ -13193,25 +13193,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002273076989661729</v>
+        <v>0.0002097288827978399</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>428</v>
@@ -13243,25 +13243,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002062784029237472</v>
+        <v>0.000206272072105014</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>429</v>
@@ -13293,25 +13293,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002062784029237472</v>
+        <v>0.0001707308960828898</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E203">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>16</v>
+        <v>944</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>430</v>
@@ -13343,25 +13343,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002028784640149361</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204">
+        <v>0.75</v>
+      </c>
+      <c r="F204">
+        <v>0.25</v>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204">
         <v>11</v>
-      </c>
-      <c r="E204">
-        <v>0.73</v>
-      </c>
-      <c r="F204">
-        <v>0.27</v>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>20</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>431</v>
@@ -13393,25 +13393,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0001679220148598506</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C205">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>944</v>
+        <v>20</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>432</v>
@@ -13443,7 +13443,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13461,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>433</v>
@@ -13493,7 +13493,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13511,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>434</v>
@@ -13543,7 +13543,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13561,7 +13561,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>435</v>
@@ -13593,7 +13593,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>436</v>
@@ -13643,7 +13643,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>437</v>
@@ -13693,7 +13693,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>438</v>
@@ -13743,7 +13743,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13761,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>439</v>
@@ -13793,7 +13793,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13811,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>440</v>
@@ -13843,7 +13843,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13861,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>441</v>
@@ -13893,7 +13893,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001458608575197132</v>
+        <v>0.0001483007152370319</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>442</v>
@@ -13943,25 +13943,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001458608575197132</v>
+        <v>8.536544804144622E-05</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>443</v>
@@ -13993,25 +13993,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001458608575197132</v>
+        <v>8.536544804144488E-05</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F217">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>444</v>
@@ -14043,25 +14043,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>8.396100742992662E-05</v>
+        <v>8.536544804144488E-05</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E218">
+        <v>0.67</v>
+      </c>
+      <c r="F218">
         <v>0.33</v>
       </c>
-      <c r="F218">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>445</v>
@@ -14093,7 +14093,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>8.396100742992532E-05</v>
+        <v>8.536544804144488E-05</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>446</v>
@@ -14143,13 +14143,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>8.396100742992532E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E220">
         <v>0.67</v>
@@ -14193,13 +14193,13 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>8.396100742992532E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E221">
         <v>0.67</v>
@@ -14211,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>448</v>
@@ -14243,7 +14243,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>449</v>
@@ -14293,7 +14293,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14311,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>450</v>
@@ -14343,7 +14343,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>451</v>
@@ -14393,7 +14393,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>452</v>
@@ -14443,7 +14443,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>453</v>
@@ -14493,7 +14493,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14511,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>454</v>
@@ -14543,7 +14543,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14561,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>455</v>
@@ -14593,7 +14593,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14611,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>456</v>
@@ -14643,7 +14643,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>5.936939770895428E-05</v>
+        <v>6.036248718913355E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>457</v>
@@ -14693,25 +14693,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>5.936939770895428E-05</v>
+        <v>2.949811012786618E-05</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>458</v>
@@ -14743,25 +14743,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>5.936939770895428E-05</v>
+        <v>2.949811012786618E-05</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>459</v>
@@ -14793,25 +14793,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>2.901280436567375E-05</v>
+        <v>0</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>460</v>
@@ -14843,25 +14843,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>2.901280436567375E-05</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>461</v>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>462</v>
@@ -14961,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>463</v>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>464</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>465</v>
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>466</v>
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>467</v>
@@ -15211,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>468</v>
@@ -15261,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>469</v>
@@ -15296,10 +15296,10 @@
         <v>0</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E243">
         <v>0.5</v>
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>470</v>
@@ -15361,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>471</v>
@@ -15396,10 +15396,10 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E245">
         <v>0.5</v>
@@ -15411,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>472</v>
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>473</v>
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>474</v>
@@ -15561,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>475</v>
@@ -15611,10 +15611,10 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K249">
         <v>0.001034334364088494</v>
@@ -15639,32 +15639,8 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250">
-        <v>0.5</v>
-      </c>
-      <c r="F250">
-        <v>0.5</v>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250">
-        <v>98</v>
-      </c>
       <c r="J250" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K250">
         <v>0.0009736251365862446</v>
@@ -15689,32 +15665,8 @@
       </c>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251">
-        <v>2</v>
-      </c>
-      <c r="E251">
-        <v>0.5</v>
-      </c>
-      <c r="F251">
-        <v>0.5</v>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251">
-        <v>29</v>
-      </c>
       <c r="J251" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K251">
         <v>0.0009736251365862446</v>
@@ -15740,7 +15692,7 @@
     </row>
     <row r="252" spans="1:17">
       <c r="J252" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K252">
         <v>0.0009190641374516145</v>
@@ -15766,7 +15718,7 @@
     </row>
     <row r="253" spans="1:17">
       <c r="J253" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K253">
         <v>0.0009190641374516145</v>
@@ -19536,7 +19488,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K398">
         <v>0.0008854151046330167</v>
@@ -19562,7 +19514,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K399">
         <v>0.0007435758166855639</v>
@@ -19588,7 +19540,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K400">
         <v>0.0006498764839374018</v>
@@ -19614,7 +19566,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K401">
         <v>0.0006439984453979681</v>
@@ -28272,7 +28224,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K734">
         <v>0.0006086997890538016</v>
@@ -28298,7 +28250,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K735">
         <v>0.0006021404231361153</v>
@@ -28324,7 +28276,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K736">
         <v>0.0005538071334140282</v>
@@ -28350,7 +28302,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K737">
         <v>0.0005538071334140282</v>
@@ -28376,7 +28328,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K738">
         <v>0.0005538071334140282</v>
@@ -28402,7 +28354,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K739">
         <v>0.0005538071334140282</v>
@@ -28428,7 +28380,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K740">
         <v>0.0005538071334140282</v>
@@ -28454,7 +28406,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K741">
         <v>0.000504880480901742</v>
@@ -28480,7 +28432,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K742">
         <v>0.000504880480901742</v>
@@ -28506,7 +28458,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K743">
         <v>0.0005017482998018249</v>
@@ -28532,7 +28484,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K744">
         <v>0.0004553756678144977</v>
@@ -28558,7 +28510,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K745">
         <v>0.0004053253811578032</v>
@@ -28584,7 +28536,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K746">
         <v>0.0004053253811578032</v>
@@ -28610,7 +28562,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K747">
         <v>0.0003547896252386912</v>
@@ -28636,7 +28588,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K748">
         <v>0.0003547896252386912</v>
@@ -28662,7 +28614,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K749">
         <v>0.0003547896252386912</v>
@@ -28688,7 +28640,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K750">
         <v>0.0003547896252386912</v>
@@ -28714,7 +28666,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K751">
         <v>0.0003547896252386912</v>
@@ -28740,7 +28692,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K752">
         <v>0.0003038719580013664</v>
@@ -28766,7 +28718,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K753">
         <v>0.0003038719580013664</v>
@@ -28792,7 +28744,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K754">
         <v>0.0003038719580013664</v>
@@ -28818,7 +28770,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K755">
         <v>0.0002527473928644471</v>
@@ -28844,7 +28796,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K756">
         <v>0.0002527473928644471</v>
@@ -28870,7 +28822,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K757">
         <v>0.0002527473928644471</v>
@@ -28896,7 +28848,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K758">
         <v>0.0002527473928644471</v>
@@ -28922,7 +28874,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K759">
         <v>0.0002527473928644471</v>
@@ -28948,7 +28900,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K760">
         <v>0.0002527473928644471</v>
@@ -28974,7 +28926,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K761">
         <v>0.0002017128157222363</v>
@@ -29000,7 +28952,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K762">
         <v>0.0002017128157222363</v>
@@ -29026,7 +28978,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K763">
         <v>0.0002017128157222363</v>
@@ -29052,7 +29004,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K764">
         <v>0.0002017128157222363</v>
@@ -29078,7 +29030,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K765">
         <v>0.0002017128157222363</v>
@@ -29104,7 +29056,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K766">
         <v>0.0001512841559165061</v>
@@ -29130,7 +29082,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K767">
         <v>0.0001512841559165061</v>
@@ -29156,7 +29108,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K768">
         <v>0.0001512841559165061</v>
@@ -29182,7 +29134,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K769">
         <v>0.0001512841559165061</v>
@@ -29208,7 +29160,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K770">
         <v>0.0001512841559165061</v>
@@ -29234,7 +29186,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K771">
         <v>0.0001512841559165061</v>
@@ -29260,7 +29212,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K772">
         <v>0.0001512841559165061</v>
@@ -29286,7 +29238,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K773">
         <v>0.0001448160199849531</v>
@@ -29312,7 +29264,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K774">
         <v>0.0001024003897558069</v>
@@ -29338,7 +29290,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K775">
         <v>0.0001024003897558069</v>
@@ -29364,7 +29316,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K776">
         <v>0.0001024003897558069</v>
@@ -29390,7 +29342,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K777">
         <v>0.0001024003897558069</v>
@@ -29416,7 +29368,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K778">
         <v>0.0001024003897558069</v>
@@ -29442,7 +29394,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K779">
         <v>8.047701436305962E-05</v>
@@ -29468,7 +29420,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K780">
         <v>8.047701436305962E-05</v>
@@ -29494,7 +29446,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K781">
         <v>7.462387255049534E-05</v>
@@ -29520,7 +29472,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K782">
         <v>5.690584258576664E-05</v>
@@ -29546,7 +29498,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K783">
         <v>5.690584258576664E-05</v>
@@ -29572,7 +29524,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K784">
         <v>5.690584258576664E-05</v>
@@ -29598,7 +29550,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K785">
         <v>5.690584258576664E-05</v>
@@ -29624,7 +29576,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K786">
         <v>5.690584258576664E-05</v>
@@ -29650,7 +29602,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K787">
         <v>5.690584258576664E-05</v>
@@ -29676,7 +29628,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K788">
         <v>5.690584258576664E-05</v>
@@ -29702,7 +29654,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K789">
         <v>5.690584258576664E-05</v>
@@ -29728,7 +29680,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K790">
         <v>5.690584258576664E-05</v>
@@ -29754,7 +29706,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K791">
         <v>5.690584258576664E-05</v>
@@ -29780,7 +29732,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K792">
         <v>5.690584258576664E-05</v>
@@ -29806,7 +29758,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K793">
         <v>5.690584258576664E-05</v>
@@ -29832,7 +29784,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K794">
         <v>5.349092435156995E-05</v>
@@ -29858,7 +29810,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K795">
         <v>2.674546217578497E-05</v>
@@ -29884,7 +29836,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K796">
         <v>2.674546217578497E-05</v>
@@ -29910,7 +29862,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K797">
         <v>2.674546217578497E-05</v>
@@ -29936,7 +29888,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K798">
         <v>1.891189767046597E-05</v>
@@ -29962,7 +29914,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K799">
         <v>1.891189767046597E-05</v>
@@ -29988,7 +29940,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K800">
         <v>1.891189767046597E-05</v>
@@ -30014,7 +29966,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K801">
         <v>1.891189767046597E-05</v>
@@ -30040,7 +29992,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K802">
         <v>1.891189767046597E-05</v>
@@ -30066,7 +30018,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K803">
         <v>1.891189767046597E-05</v>
@@ -30092,7 +30044,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K804">
         <v>1.891189767046597E-05</v>
@@ -30118,7 +30070,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K805">
         <v>1.891189767046597E-05</v>
@@ -30144,7 +30096,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K806">
         <v>1.891189767046597E-05</v>
@@ -30170,7 +30122,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K807">
         <v>1.891189767046597E-05</v>
@@ -30196,7 +30148,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K808">
         <v>1.891189767046597E-05</v>
@@ -30222,7 +30174,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K809">
         <v>1.337273108789235E-05</v>
@@ -30248,7 +30200,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K810">
         <v>8.003736963267942E-06</v>
@@ -30274,7 +30226,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K811">
         <v>8.003736963267942E-06</v>
@@ -30300,7 +30252,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K812">
         <v>0</v>
@@ -30326,7 +30278,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K813">
         <v>0</v>
@@ -30352,7 +30304,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K814">
         <v>0</v>
@@ -30378,7 +30330,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K815">
         <v>0</v>
@@ -30404,7 +30356,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K816">
         <v>0</v>
@@ -30430,7 +30382,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K817">
         <v>0</v>
@@ -30456,7 +30408,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K818">
         <v>0</v>
@@ -30482,7 +30434,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K819">
         <v>0</v>
@@ -30508,7 +30460,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K820">
         <v>0</v>
@@ -30534,7 +30486,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K821">
         <v>0</v>
@@ -30560,7 +30512,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K822">
         <v>0</v>
@@ -30586,7 +30538,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K823">
         <v>0</v>
@@ -30612,7 +30564,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K824">
         <v>0</v>
@@ -30638,7 +30590,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K825">
         <v>0</v>
@@ -30664,7 +30616,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K826">
         <v>0</v>
@@ -30690,7 +30642,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K827">
         <v>0</v>
@@ -30716,7 +30668,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K828">
         <v>0</v>
